--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1969.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1969.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.010381937026978</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.308330178260803</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.954529762268066</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.382446765899658</v>
       </c>
       <c r="E1">
-        <v>0.7652081981966721</v>
+        <v>1.278698682785034</v>
       </c>
     </row>
   </sheetData>
